--- a/biology/Botanique/Schisandra/Schisandra.xlsx
+++ b/biology/Botanique/Schisandra/Schisandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Schisandra a été établi par le botaniste français André Michaux (1746-1802) qui passa dix ans de sa vie en Amérique du Nord[1]. En 1803, il décrivit et nomma Schisandra coccinea une espèce qu'il avait observé la première fois en 1786.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Schisandra a été établi par le botaniste français André Michaux (1746-1802) qui passa dix ans de sa vie en Amérique du Nord. En 1803, il décrivit et nomma Schisandra coccinea une espèce qu'il avait observé la première fois en 1786.
 Le genre Schisandra comporte environ 25 espèces, toutes originaires d'Asie Orientale sauf l'espèce nord américaine S. coccinea, une liane du sud-est des États-Unis.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Schisandra arisanensis Hayata | taiwan
 Schisandra axillaris Hook.f. &amp; Thomson | himalaya, java = Schisandra propinqua subsp. axillaris
